--- a/Table2_Terrestrial.xlsx
+++ b/Table2_Terrestrial.xlsx
@@ -437,13 +437,13 @@
         <v>35462.15</v>
       </c>
       <c r="C2" t="n">
-        <v>-23447.5827</v>
+        <v>-24950.9708</v>
       </c>
       <c r="D2" t="n">
         <v>3201.8016</v>
       </c>
       <c r="E2" t="n">
-        <v>32.5362</v>
+        <v>1535.9243</v>
       </c>
       <c r="F2" t="n">
         <v>698.996</v>
@@ -466,13 +466,13 @@
         <v>4537.1035</v>
       </c>
       <c r="C3" t="n">
-        <v>376.924599999999</v>
+        <v>-642.282400000001</v>
       </c>
       <c r="D3" t="n">
         <v>3201.8016</v>
       </c>
       <c r="E3" t="n">
-        <v>32.5362</v>
+        <v>1051.7432</v>
       </c>
       <c r="F3" t="n">
         <v>698.996</v>
@@ -495,13 +495,13 @@
         <v>3878.6199</v>
       </c>
       <c r="C4" t="n">
-        <v>-265.512799999999</v>
+        <v>-932.5749</v>
       </c>
       <c r="D4" t="n">
         <v>1354.244</v>
       </c>
       <c r="E4" t="n">
-        <v>24.82</v>
+        <v>691.8821</v>
       </c>
       <c r="F4" t="n">
         <v>355.6422</v>
@@ -524,13 +524,13 @@
         <v>1755.2911</v>
       </c>
       <c r="C5" t="n">
-        <v>211.8905</v>
+        <v>-112.9524</v>
       </c>
       <c r="D5" t="n">
         <v>900.6616</v>
       </c>
       <c r="E5" t="n">
-        <v>14.106</v>
+        <v>338.9489</v>
       </c>
       <c r="F5" t="n">
         <v>323.0872</v>
@@ -553,13 +553,13 @@
         <v>1091.7837</v>
       </c>
       <c r="C6" t="n">
-        <v>-58.3173000000002</v>
+        <v>-212.6432</v>
       </c>
       <c r="D6" t="n">
         <v>503.8269</v>
       </c>
       <c r="E6" t="n">
-        <v>4.7942</v>
+        <v>159.1201</v>
       </c>
       <c r="F6" t="n">
         <v>100.4372</v>
@@ -582,13 +582,13 @@
         <v>697.7275</v>
       </c>
       <c r="C7" t="n">
-        <v>597.2227</v>
+        <v>97.1094000000001</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>32.5362</v>
+        <v>532.6495</v>
       </c>
       <c r="F7" t="n">
         <v>27.0807</v>
@@ -611,13 +611,13 @@
         <v>439.6053</v>
       </c>
       <c r="C8" t="n">
-        <v>-4.30240000000003</v>
+        <v>-35.3267</v>
       </c>
       <c r="D8" t="n">
         <v>221.342</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2555</v>
+        <v>31.2798</v>
       </c>
       <c r="F8" t="n">
         <v>71.2681</v>
@@ -640,13 +640,13 @@
         <v>255.3549</v>
       </c>
       <c r="C9" t="n">
-        <v>52.5898</v>
+        <v>-7.19880000000001</v>
       </c>
       <c r="D9" t="n">
         <v>80.4886</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0347</v>
+        <v>63.8233</v>
       </c>
       <c r="F9" t="n">
         <v>6.1841</v>
@@ -669,13 +669,13 @@
         <v>227.5754</v>
       </c>
       <c r="C10" t="n">
-        <v>-10.3748</v>
+        <v>-79.9205</v>
       </c>
       <c r="D10" t="n">
         <v>110.1405</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0921</v>
+        <v>70.6378</v>
       </c>
       <c r="F10" t="n">
         <v>50.5277</v>
@@ -698,13 +698,13 @@
         <v>56.735</v>
       </c>
       <c r="C11" t="n">
-        <v>21.2059</v>
+        <v>-1.6737</v>
       </c>
       <c r="D11" t="n">
         <v>4.2924</v>
       </c>
       <c r="E11" t="n">
-        <v>4.6263</v>
+        <v>27.5059</v>
       </c>
       <c r="F11" t="n">
         <v>0.3062</v>

--- a/Table2_Terrestrial.xlsx
+++ b/Table2_Terrestrial.xlsx
@@ -434,7 +434,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>35462.15</v>
+        <v>42191.9413</v>
       </c>
       <c r="C2" t="n">
         <v>-24950.9708</v>
@@ -449,7 +449,7 @@
         <v>698.996</v>
       </c>
       <c r="G2" t="n">
-        <v>30379.7875</v>
+        <v>37109.5788</v>
       </c>
       <c r="H2" t="n">
         <v>1529.6872</v>

--- a/Table2_Terrestrial.xlsx
+++ b/Table2_Terrestrial.xlsx
@@ -434,10 +434,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>42191.9413</v>
+        <v>6950.3281</v>
       </c>
       <c r="C2" t="n">
-        <v>-24950.9708</v>
+        <v>-1446.1524</v>
       </c>
       <c r="D2" t="n">
         <v>3201.8016</v>
@@ -449,13 +449,13 @@
         <v>698.996</v>
       </c>
       <c r="G2" t="n">
-        <v>37109.5788</v>
+        <v>1867.9656</v>
       </c>
       <c r="H2" t="n">
-        <v>1529.6872</v>
+        <v>189.7352</v>
       </c>
       <c r="I2" t="n">
-        <v>23066.9242</v>
+        <v>902.0578</v>
       </c>
     </row>
     <row r="3">

--- a/Table2_Terrestrial.xlsx
+++ b/Table2_Terrestrial.xlsx
@@ -437,7 +437,7 @@
         <v>6950.3281</v>
       </c>
       <c r="C2" t="n">
-        <v>-1446.1524</v>
+        <v>-208.084300000001</v>
       </c>
       <c r="D2" t="n">
         <v>3201.8016</v>
@@ -449,7 +449,7 @@
         <v>698.996</v>
       </c>
       <c r="G2" t="n">
-        <v>1867.9656</v>
+        <v>629.8975</v>
       </c>
       <c r="H2" t="n">
         <v>189.7352</v>
@@ -495,7 +495,7 @@
         <v>3878.6199</v>
       </c>
       <c r="C4" t="n">
-        <v>-932.5749</v>
+        <v>158.078100000001</v>
       </c>
       <c r="D4" t="n">
         <v>1354.244</v>
@@ -507,7 +507,7 @@
         <v>355.6422</v>
       </c>
       <c r="G4" t="n">
-        <v>1576.7815</v>
+        <v>486.1285</v>
       </c>
       <c r="H4" t="n">
         <v>159.1499</v>
@@ -524,7 +524,7 @@
         <v>1755.2911</v>
       </c>
       <c r="C5" t="n">
-        <v>-112.9524</v>
+        <v>48.2409</v>
       </c>
       <c r="D5" t="n">
         <v>900.6616</v>
@@ -536,7 +536,7 @@
         <v>323.0872</v>
       </c>
       <c r="G5" t="n">
-        <v>246.7972</v>
+        <v>85.6039</v>
       </c>
       <c r="H5" t="n">
         <v>11.3327</v>
@@ -553,7 +553,7 @@
         <v>1091.7837</v>
       </c>
       <c r="C6" t="n">
-        <v>-212.6432</v>
+        <v>11.4981</v>
       </c>
       <c r="D6" t="n">
         <v>503.8269</v>
@@ -565,7 +565,7 @@
         <v>100.4372</v>
       </c>
       <c r="G6" t="n">
-        <v>360.0377</v>
+        <v>135.8964</v>
       </c>
       <c r="H6" t="n">
         <v>43.1797</v>
@@ -611,7 +611,7 @@
         <v>439.6053</v>
       </c>
       <c r="C8" t="n">
-        <v>-35.3267</v>
+        <v>80.7752</v>
       </c>
       <c r="D8" t="n">
         <v>221.342</v>
@@ -623,7 +623,7 @@
         <v>71.2681</v>
       </c>
       <c r="G8" t="n">
-        <v>120.2188</v>
+        <v>4.1169</v>
       </c>
       <c r="H8" t="n">
         <v>8.019</v>
@@ -640,7 +640,7 @@
         <v>255.3549</v>
       </c>
       <c r="C9" t="n">
-        <v>-7.19880000000001</v>
+        <v>1.69289999999995</v>
       </c>
       <c r="D9" t="n">
         <v>80.4886</v>
@@ -652,7 +652,7 @@
         <v>6.1841</v>
       </c>
       <c r="G9" t="n">
-        <v>98.9771</v>
+        <v>90.0854</v>
       </c>
       <c r="H9" t="n">
         <v>8.6781</v>
@@ -669,7 +669,7 @@
         <v>227.5754</v>
       </c>
       <c r="C10" t="n">
-        <v>-79.9205</v>
+        <v>-56.5546</v>
       </c>
       <c r="D10" t="n">
         <v>110.1405</v>
@@ -681,7 +681,7 @@
         <v>50.5277</v>
       </c>
       <c r="G10" t="n">
-        <v>48.3676</v>
+        <v>25.0017</v>
       </c>
       <c r="H10" t="n">
         <v>7.2627</v>
@@ -698,7 +698,7 @@
         <v>56.735</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.6737</v>
+        <v>3.5311</v>
       </c>
       <c r="D11" t="n">
         <v>4.2924</v>
@@ -710,7 +710,7 @@
         <v>0.3062</v>
       </c>
       <c r="G11" t="n">
-        <v>22.3098</v>
+        <v>17.105</v>
       </c>
       <c r="H11" t="n">
         <v>1.6063</v>

--- a/Table2_Terrestrial.xlsx
+++ b/Table2_Terrestrial.xlsx
@@ -437,19 +437,19 @@
         <v>6950.3281</v>
       </c>
       <c r="C2" t="n">
-        <v>-208.084300000001</v>
+        <v>-207.1683</v>
       </c>
       <c r="D2" t="n">
-        <v>3201.8016</v>
+        <v>3200.5977</v>
       </c>
       <c r="E2" t="n">
-        <v>1535.9243</v>
+        <v>1535.9235</v>
       </c>
       <c r="F2" t="n">
         <v>698.996</v>
       </c>
       <c r="G2" t="n">
-        <v>629.8975</v>
+        <v>630.1862</v>
       </c>
       <c r="H2" t="n">
         <v>189.7352</v>
@@ -466,10 +466,10 @@
         <v>4537.1035</v>
       </c>
       <c r="C3" t="n">
-        <v>-642.282400000001</v>
+        <v>-641.078500000001</v>
       </c>
       <c r="D3" t="n">
-        <v>3201.8016</v>
+        <v>3200.5977</v>
       </c>
       <c r="E3" t="n">
         <v>1051.7432</v>
@@ -495,10 +495,10 @@
         <v>3878.6199</v>
       </c>
       <c r="C4" t="n">
-        <v>158.078100000001</v>
+        <v>158.0678</v>
       </c>
       <c r="D4" t="n">
-        <v>1354.244</v>
+        <v>1354.1527</v>
       </c>
       <c r="E4" t="n">
         <v>691.8821</v>
@@ -507,7 +507,7 @@
         <v>355.6422</v>
       </c>
       <c r="G4" t="n">
-        <v>486.1285</v>
+        <v>486.2301</v>
       </c>
       <c r="H4" t="n">
         <v>159.1499</v>
@@ -524,10 +524,10 @@
         <v>1755.2911</v>
       </c>
       <c r="C5" t="n">
-        <v>48.2409</v>
+        <v>48.2456000000002</v>
       </c>
       <c r="D5" t="n">
-        <v>900.6616</v>
+        <v>900.6565</v>
       </c>
       <c r="E5" t="n">
         <v>338.9489</v>
@@ -536,7 +536,7 @@
         <v>323.0872</v>
       </c>
       <c r="G5" t="n">
-        <v>85.6039</v>
+        <v>85.6043</v>
       </c>
       <c r="H5" t="n">
         <v>11.3327</v>
@@ -553,10 +553,10 @@
         <v>1091.7837</v>
       </c>
       <c r="C6" t="n">
-        <v>11.4981</v>
+        <v>11.4551999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>503.8269</v>
+        <v>503.8089</v>
       </c>
       <c r="E6" t="n">
         <v>159.1201</v>
@@ -565,7 +565,7 @@
         <v>100.4372</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8964</v>
+        <v>135.9573</v>
       </c>
       <c r="H6" t="n">
         <v>43.1797</v>
@@ -582,13 +582,13 @@
         <v>697.7275</v>
       </c>
       <c r="C7" t="n">
-        <v>97.1094000000001</v>
+        <v>97.1102000000001</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>532.6495</v>
+        <v>532.6487</v>
       </c>
       <c r="F7" t="n">
         <v>27.0807</v>
@@ -611,7 +611,7 @@
         <v>439.6053</v>
       </c>
       <c r="C8" t="n">
-        <v>80.7752</v>
+        <v>80.7764</v>
       </c>
       <c r="D8" t="n">
         <v>221.342</v>
@@ -623,7 +623,7 @@
         <v>71.2681</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1169</v>
+        <v>4.1157</v>
       </c>
       <c r="H8" t="n">
         <v>8.019</v>
@@ -669,10 +669,10 @@
         <v>227.5754</v>
       </c>
       <c r="C10" t="n">
-        <v>-56.5546</v>
+        <v>-56.5543</v>
       </c>
       <c r="D10" t="n">
-        <v>110.1405</v>
+        <v>110.14</v>
       </c>
       <c r="E10" t="n">
         <v>70.6378</v>
@@ -681,7 +681,7 @@
         <v>50.5277</v>
       </c>
       <c r="G10" t="n">
-        <v>25.0017</v>
+        <v>25.0019</v>
       </c>
       <c r="H10" t="n">
         <v>7.2627</v>
@@ -698,19 +698,19 @@
         <v>56.735</v>
       </c>
       <c r="C11" t="n">
-        <v>3.5311</v>
+        <v>3.47410000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>4.2924</v>
+        <v>4.2913</v>
       </c>
       <c r="E11" t="n">
-        <v>27.5059</v>
+        <v>27.5064</v>
       </c>
       <c r="F11" t="n">
         <v>0.3062</v>
       </c>
       <c r="G11" t="n">
-        <v>17.105</v>
+        <v>17.1626</v>
       </c>
       <c r="H11" t="n">
         <v>1.6063</v>

--- a/Table2_Terrestrial.xlsx
+++ b/Table2_Terrestrial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">Drevet_Skov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGR_P3</t>
   </si>
   <si>
     <t xml:space="preserve">PGR</t>
@@ -428,294 +431,327 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>6950.3281</v>
+        <v>6932.9478</v>
       </c>
       <c r="C2" t="n">
-        <v>-207.1683</v>
+        <v>370.5774</v>
       </c>
       <c r="D2" t="n">
-        <v>3200.5977</v>
+        <v>1767.8343</v>
       </c>
       <c r="E2" t="n">
-        <v>1535.9235</v>
+        <v>1067.1831</v>
       </c>
       <c r="F2" t="n">
-        <v>698.996</v>
+        <v>698.9957</v>
       </c>
       <c r="G2" t="n">
-        <v>630.1862</v>
+        <v>622.1783</v>
       </c>
       <c r="H2" t="n">
-        <v>189.7352</v>
+        <v>1326.6283</v>
       </c>
       <c r="I2" t="n">
-        <v>902.0578</v>
+        <v>184.63</v>
+      </c>
+      <c r="J2" t="n">
+        <v>894.9207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>4537.1035</v>
+        <v>4537.1029</v>
       </c>
       <c r="C3" t="n">
-        <v>-641.078500000001</v>
+        <v>-29.1839</v>
       </c>
       <c r="D3" t="n">
-        <v>3200.5977</v>
+        <v>1767.8343</v>
       </c>
       <c r="E3" t="n">
-        <v>1051.7432</v>
+        <v>545.9837</v>
       </c>
       <c r="F3" t="n">
-        <v>698.996</v>
+        <v>698.9957</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>1326.6283</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>226.8451</v>
+      <c r="J3" t="n">
+        <v>226.8448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>3878.6199</v>
+        <v>3878.6247</v>
       </c>
       <c r="C4" t="n">
-        <v>158.0678</v>
+        <v>347.8043</v>
       </c>
       <c r="D4" t="n">
-        <v>1354.1527</v>
+        <v>788.4553</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8821</v>
+        <v>523.5386</v>
       </c>
       <c r="F4" t="n">
-        <v>355.6422</v>
+        <v>355.642</v>
       </c>
       <c r="G4" t="n">
-        <v>486.2301</v>
+        <v>480.1667</v>
       </c>
       <c r="H4" t="n">
-        <v>159.1499</v>
+        <v>550.373</v>
       </c>
       <c r="I4" t="n">
-        <v>673.4951</v>
+        <v>159.1498</v>
+      </c>
+      <c r="J4" t="n">
+        <v>673.495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>1755.2911</v>
+        <v>1755.2948</v>
       </c>
       <c r="C5" t="n">
-        <v>48.2456000000002</v>
+        <v>144.1109</v>
       </c>
       <c r="D5" t="n">
-        <v>900.6565</v>
+        <v>572.0142</v>
       </c>
       <c r="E5" t="n">
-        <v>338.9489</v>
+        <v>242.2076</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0872</v>
+        <v>323.087</v>
       </c>
       <c r="G5" t="n">
-        <v>85.6043</v>
+        <v>85.7347</v>
       </c>
       <c r="H5" t="n">
-        <v>11.3327</v>
+        <v>329.3918</v>
       </c>
       <c r="I5" t="n">
-        <v>47.4159</v>
+        <v>11.3326</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47.416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>1091.7837</v>
+        <v>1091.7847</v>
       </c>
       <c r="C6" t="n">
-        <v>11.4551999999999</v>
+        <v>63.0317</v>
       </c>
       <c r="D6" t="n">
-        <v>503.8089</v>
+        <v>310.6475</v>
       </c>
       <c r="E6" t="n">
-        <v>159.1201</v>
+        <v>91.3752</v>
       </c>
       <c r="F6" t="n">
         <v>100.4372</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9573</v>
+        <v>132.8965</v>
       </c>
       <c r="H6" t="n">
-        <v>43.1797</v>
+        <v>212.3914</v>
       </c>
       <c r="I6" t="n">
-        <v>137.8253</v>
+        <v>43.1798</v>
+      </c>
+      <c r="J6" t="n">
+        <v>137.8254</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>697.7275</v>
+        <v>599.7105</v>
       </c>
       <c r="C7" t="n">
-        <v>97.1102000000001</v>
+        <v>-0.134999999999991</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>532.6487</v>
+        <v>554.3618</v>
       </c>
       <c r="F7" t="n">
-        <v>27.0807</v>
+        <v>12.7404</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>24.4403</v>
+        <v>14.7515</v>
       </c>
       <c r="I7" t="n">
-        <v>16.4476</v>
+        <v>11.7788</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>439.6053</v>
+        <v>439.6084</v>
       </c>
       <c r="C8" t="n">
-        <v>80.7764</v>
+        <v>98.8465</v>
       </c>
       <c r="D8" t="n">
-        <v>221.342</v>
+        <v>124.8575</v>
       </c>
       <c r="E8" t="n">
-        <v>31.2798</v>
+        <v>6.9412</v>
       </c>
       <c r="F8" t="n">
         <v>71.2681</v>
       </c>
       <c r="G8" t="n">
-        <v>4.1157</v>
+        <v>4.201</v>
       </c>
       <c r="H8" t="n">
-        <v>8.019</v>
+        <v>102.6709</v>
       </c>
       <c r="I8" t="n">
+        <v>8.0189</v>
+      </c>
+      <c r="J8" t="n">
         <v>22.8043</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>255.3549</v>
+        <v>255.3552</v>
       </c>
       <c r="C9" t="n">
-        <v>1.69289999999995</v>
+        <v>4.2886</v>
       </c>
       <c r="D9" t="n">
-        <v>80.4886</v>
+        <v>65.1717</v>
       </c>
       <c r="E9" t="n">
-        <v>63.8233</v>
+        <v>143.9828</v>
       </c>
       <c r="F9" t="n">
         <v>6.1841</v>
       </c>
       <c r="G9" t="n">
-        <v>90.0854</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>22.6474</v>
+      </c>
+      <c r="I9" t="n">
         <v>8.6781</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>4.4025</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>227.5754</v>
+        <v>227.5752</v>
       </c>
       <c r="C10" t="n">
-        <v>-56.5543</v>
+        <v>9.38560000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>110.14</v>
+        <v>77.4391</v>
       </c>
       <c r="E10" t="n">
-        <v>70.6378</v>
+        <v>41.7703</v>
       </c>
       <c r="F10" t="n">
         <v>50.5277</v>
       </c>
       <c r="G10" t="n">
-        <v>25.0019</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>20.6302</v>
+      </c>
+      <c r="I10" t="n">
         <v>7.2627</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>20.5596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="n">
         <v>56.735</v>
       </c>
       <c r="C11" t="n">
-        <v>3.47410000000001</v>
+        <v>2.1699</v>
       </c>
       <c r="D11" t="n">
-        <v>4.2913</v>
+        <v>1.6614</v>
       </c>
       <c r="E11" t="n">
-        <v>27.5064</v>
+        <v>29.2557</v>
       </c>
       <c r="F11" t="n">
         <v>0.3062</v>
       </c>
       <c r="G11" t="n">
-        <v>17.1626</v>
+        <v>16.7754</v>
       </c>
       <c r="H11" t="n">
+        <v>2.572</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.6063</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>2.3881</v>
       </c>
     </row>
